--- a/Database concept.xlsx
+++ b/Database concept.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\GitHub\Project-Balance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EE4CBAD-2468-4CF4-8D57-D9933B4D5BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6B1CB0-6187-4587-B0CF-ED27F928DD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3006F280-1738-45FE-BBD5-8E8A4F088C9A}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
-  <si>
-    <t>Database concept for budget tracker web app</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Which columns do I need?</t>
   </si>
@@ -50,43 +39,40 @@
     <t>Value €</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Example Values</t>
   </si>
   <si>
-    <t>Transaction Number (Primary key)</t>
-  </si>
-  <si>
     <t>Wohnen</t>
   </si>
   <si>
     <t>Miete</t>
   </si>
   <si>
-    <t>Tanken</t>
-  </si>
-  <si>
-    <t>Mobilität</t>
-  </si>
-  <si>
-    <t>Income</t>
-  </si>
-  <si>
     <t>Gehalt</t>
   </si>
   <si>
-    <t>Fix spending database</t>
-  </si>
-  <si>
-    <t>Variable spending database</t>
-  </si>
-  <si>
-    <t>Income database</t>
-  </si>
-  <si>
-    <t>counting up</t>
+    <t>Database concept for Project Balance</t>
+  </si>
+  <si>
+    <t>Database "Income"</t>
+  </si>
+  <si>
+    <t>Transaction ID (Primary key)</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Einkommen</t>
+  </si>
+  <si>
+    <t>Database "Spending"</t>
   </si>
 </sst>
 </file>
@@ -116,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -253,13 +239,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -269,12 +298,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -589,199 +616,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C93B61-0D39-406A-9C89-BAE8BC45064F}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="1"/>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="1"/>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="11">
+        <v>2154.34</v>
+      </c>
+      <c r="F4" s="11">
+        <v>18</v>
+      </c>
+      <c r="G4" s="11">
+        <v>3</v>
+      </c>
+      <c r="H4" s="12">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="D6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6">
-        <v>3000</v>
-      </c>
-      <c r="E4" s="6">
-        <v>20220804</v>
-      </c>
-      <c r="F4" s="7">
-        <v>202208040000000</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="E7" s="2">
+        <v>440</v>
+      </c>
+      <c r="F7" s="2">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="6">
-        <v>400</v>
-      </c>
-      <c r="E7" s="6">
-        <v>20220804</v>
-      </c>
-      <c r="F7" s="7">
-        <v>202208040000000</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="6">
-        <v>70</v>
-      </c>
-      <c r="E10" s="6">
-        <v>20220804</v>
-      </c>
-      <c r="F10" s="7">
-        <v>202208040000000</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
+      <c r="H7" s="9">
+        <v>2024</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A2:F2"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
